--- a/dicionario_dados/dicionario_de_dados.xlsx
+++ b/dicionario_dados/dicionario_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabrina.434014\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A64A09E-B88F-469D-AA1C-411DB5B60546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4097208-38C3-41D2-B610-340D46410000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="145">
   <si>
     <t>Tabela</t>
   </si>
@@ -436,6 +436,30 @@
   </si>
   <si>
     <t>idx_maintenance</t>
+  </si>
+  <si>
+    <t>pickup_condition, return_condition</t>
+  </si>
+  <si>
+    <t>idx_condition</t>
+  </si>
+  <si>
+    <t>role, id_client</t>
+  </si>
+  <si>
+    <t>idx_role_client</t>
+  </si>
+  <si>
+    <t>status, start_date</t>
+  </si>
+  <si>
+    <t>idx_status_start</t>
+  </si>
+  <si>
+    <t>id_rental, id_equipment</t>
+  </si>
+  <si>
+    <t>idx_rentalitem_equipment</t>
   </si>
 </sst>
 </file>
@@ -587,9 +611,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -597,6 +619,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,7 +633,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,10 +1176,10 @@
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1163,17 +1187,17 @@
       <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
         <v>52</v>
@@ -1181,17 +1205,17 @@
       <c r="E14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
         <v>52</v>
@@ -1199,21 +1223,21 @@
       <c r="E15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1431,10 +1455,10 @@
       <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="4" t="s">
         <v>52</v>
       </c>
@@ -1442,41 +1466,47 @@
       <c r="E30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
+      <c r="A31" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="14"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="F31" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1640,10 +1670,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="16"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1710,10 +1740,10 @@
       <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="10"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="4" t="s">
         <v>52</v>
       </c>
@@ -1721,44 +1751,44 @@
       <c r="E48" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
+      <c r="A52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1913,10 +1943,10 @@
       <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="10"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="4" t="s">
         <v>52</v>
       </c>
@@ -1924,41 +1954,41 @@
       <c r="E62" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2124,10 +2154,10 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="16"/>
+      <c r="B76" s="17"/>
       <c r="C76" s="3" t="s">
         <v>37</v>
       </c>
@@ -2140,10 +2170,10 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B77" s="16"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="3" t="s">
         <v>68</v>
       </c>
@@ -2160,10 +2190,10 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="16"/>
+      <c r="B78" s="17"/>
       <c r="C78" s="3" t="s">
         <v>67</v>
       </c>
@@ -2226,10 +2256,10 @@
       <c r="H81" s="13"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="10"/>
+      <c r="B82" s="14"/>
       <c r="C82" s="4" t="s">
         <v>52</v>
       </c>
@@ -2237,41 +2267,47 @@
       <c r="E82" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="F82" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
+      <c r="A83" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="14"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="5"/>
+      <c r="D83" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E83" s="5"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
+      <c r="F83" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
     </row>
     <row r="87" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -2433,10 +2469,10 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="16"/>
+      <c r="B97" s="17"/>
       <c r="C97" s="3" t="s">
         <v>67</v>
       </c>
@@ -2499,10 +2535,10 @@
       <c r="H100" s="13"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B101" s="10"/>
+      <c r="B101" s="15"/>
       <c r="C101" s="4" t="s">
         <v>52</v>
       </c>
@@ -2510,41 +2546,53 @@
       <c r="E101" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="F101" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
+      <c r="A102" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" s="14"/>
       <c r="C102" s="4"/>
-      <c r="D102" s="5"/>
+      <c r="D102" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E102" s="5"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
+      <c r="F102" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
+      <c r="A103" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B103" s="14"/>
       <c r="C103" s="4"/>
-      <c r="D103" s="5"/>
+      <c r="D103" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E103" s="5"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
+      <c r="F103" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
     </row>
     <row r="105" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -2708,10 +2756,10 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B116" s="16"/>
+      <c r="B116" s="17"/>
       <c r="C116" s="3" t="s">
         <v>67</v>
       </c>
@@ -2724,10 +2772,10 @@
       </c>
     </row>
     <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B117" s="16"/>
+      <c r="B117" s="17"/>
       <c r="C117" s="3" t="s">
         <v>49</v>
       </c>
@@ -2796,10 +2844,10 @@
       <c r="H120" s="13"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B121" s="10"/>
+      <c r="B121" s="14"/>
       <c r="C121" s="4" t="s">
         <v>52</v>
       </c>
@@ -2807,41 +2855,41 @@
       <c r="E121" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F121" s="10" t="s">
+      <c r="F121" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
+      <c r="A122" s="14"/>
+      <c r="B122" s="14"/>
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
+      <c r="A123" s="14"/>
+      <c r="B123" s="14"/>
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
+      <c r="A124" s="14"/>
+      <c r="B124" s="14"/>
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -3007,10 +3055,10 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B136" s="16"/>
+      <c r="B136" s="17"/>
       <c r="C136" s="3" t="s">
         <v>37</v>
       </c>
@@ -3055,10 +3103,10 @@
       <c r="H138" s="13"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="10" t="s">
+      <c r="A139" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B139" s="10"/>
+      <c r="B139" s="14"/>
       <c r="C139" s="4" t="s">
         <v>52</v>
       </c>
@@ -3066,17 +3114,17 @@
       <c r="E139" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F139" s="10" t="s">
+      <c r="F139" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B140" s="10"/>
+      <c r="B140" s="14"/>
       <c r="C140" s="4"/>
       <c r="D140" s="5" t="s">
         <v>52</v>
@@ -3084,31 +3132,31 @@
       <c r="E140" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F140" s="10" t="s">
+      <c r="F140" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
+      <c r="A141" s="14"/>
+      <c r="B141" s="14"/>
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
+      <c r="A142" s="14"/>
+      <c r="B142" s="14"/>
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="172">
@@ -3266,6 +3314,15 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -3275,15 +3332,6 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:H12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/dicionario_dados/dicionario_de_dados.xlsx
+++ b/dicionario_dados/dicionario_de_dados.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="170">
   <si>
     <t>Tabela</t>
   </si>
@@ -103,18 +103,9 @@
     <t>Identificador único do cliente.</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>varchar(225)</t>
-  </si>
-  <si>
     <t>1-225</t>
   </si>
   <si>
-    <t>Nome da empresa.</t>
-  </si>
-  <si>
     <t>cnpj</t>
   </si>
   <si>
@@ -124,48 +115,24 @@
     <t>varchar(14)</t>
   </si>
   <si>
-    <t xml:space="preserve"> CNPJ da empresa</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
-    <t>6-225</t>
-  </si>
-  <si>
     <t>E-mail de contato (único).</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>10-20.</t>
-  </si>
-  <si>
     <t>Número de telefone do cliente (opcional)</t>
   </si>
   <si>
-    <t>created_at</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
-    <t xml:space="preserve"> Data de cadastro do cliente no sistema.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">employee </t>
-  </si>
-  <si>
     <t>Representa os funcionários da empresa cliente que irão utilizar ou gerenciar os equipamentos.</t>
   </si>
   <si>
-    <t>id_employee</t>
-  </si>
-  <si>
     <t>Identificador único do funcionário.</t>
   </si>
   <si>
@@ -178,12 +145,6 @@
     <t>Telefone para contato.</t>
   </si>
   <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>Cargo ou função na empresa.</t>
-  </si>
-  <si>
     <t>varchar(100)</t>
   </si>
   <si>
@@ -196,36 +157,18 @@
     <t>x</t>
   </si>
   <si>
-    <t xml:space="preserve">equipment </t>
-  </si>
-  <si>
     <t>Contém os dados dos equipamentos disponíveis para locação.</t>
   </si>
   <si>
-    <t>id_equipment</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>serial_number</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>id_equipment_type</t>
-  </si>
-  <si>
     <t>Identificador único do equipamento.</t>
   </si>
   <si>
     <t xml:space="preserve"> Nome do equipamento.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Descrição detalhada.</t>
-  </si>
-  <si>
     <t>Número de série do equipamento (único).</t>
   </si>
   <si>
@@ -238,18 +181,12 @@
     <t xml:space="preserve"> Data de cadastro no sistema.</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>varchar(50)</t>
   </si>
   <si>
     <t>1-50.</t>
   </si>
   <si>
-    <t xml:space="preserve">equipment_type </t>
-  </si>
-  <si>
     <t>Lista os tipos ou categorias dos equipamentos.</t>
   </si>
   <si>
@@ -262,27 +199,9 @@
     <t>Identificador único do tipo.</t>
   </si>
   <si>
-    <t xml:space="preserve">rental </t>
-  </si>
-  <si>
     <t>Representa o processo de alocação dos equipamentos a um cliente.</t>
   </si>
   <si>
-    <t>id_rental</t>
-  </si>
-  <si>
-    <t>id_agent</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>end_date</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>Identificador único da locação.</t>
   </si>
   <si>
@@ -310,27 +229,9 @@
     <t xml:space="preserve"> Data de criação do registro.</t>
   </si>
   <si>
-    <t xml:space="preserve"> rental_item</t>
-  </si>
-  <si>
     <t>Detalha os equipamentos específicos incluídos em uma locação.</t>
   </si>
   <si>
-    <t>id_rental_item</t>
-  </si>
-  <si>
-    <t>pickup_date</t>
-  </si>
-  <si>
-    <t>return_date</t>
-  </si>
-  <si>
-    <t>pickup_condition</t>
-  </si>
-  <si>
-    <t>return_condition</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Identificador único do item.</t>
   </si>
   <si>
@@ -352,18 +253,9 @@
     <t xml:space="preserve"> Condição na devolução.</t>
   </si>
   <si>
-    <t xml:space="preserve">maintenance </t>
-  </si>
-  <si>
     <t>Armazena as manutenções realizadas nos equipamentos.</t>
   </si>
   <si>
-    <t>id_maintenance</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Identificador único da manutenção.</t>
   </si>
   <si>
@@ -391,9 +283,6 @@
     <t xml:space="preserve"> NOT NULL</t>
   </si>
   <si>
-    <t xml:space="preserve">agent </t>
-  </si>
-  <si>
     <t>Profissionais da empresa de alocação que gerenciam locações ou realizam manutenções.</t>
   </si>
   <si>
@@ -424,61 +313,238 @@
     <t>idx_cliente_cnpj</t>
   </si>
   <si>
-    <t>idx_agent_pk</t>
-  </si>
-  <si>
-    <t>idx_agent_email</t>
-  </si>
-  <si>
-    <t>idx_employee_pk</t>
-  </si>
-  <si>
-    <t>idx_equipment_type</t>
-  </si>
-  <si>
-    <t>idx_equipment</t>
-  </si>
-  <si>
-    <t>idx_rental</t>
-  </si>
-  <si>
-    <t>idx_rental_item</t>
-  </si>
-  <si>
-    <t>idx_maintenance</t>
-  </si>
-  <si>
-    <t>idx_employee_email</t>
-  </si>
-  <si>
-    <t>idx_employee_id_client</t>
-  </si>
-  <si>
-    <t>idx_equipment_serial</t>
-  </si>
-  <si>
-    <t>idx_equipment_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idx_rental_id_client </t>
-  </si>
-  <si>
-    <t xml:space="preserve">idx_rental_id_employee </t>
-  </si>
-  <si>
-    <t>idx_rental_item_id_rental</t>
-  </si>
-  <si>
-    <t>idx_rental_item_id_equipment</t>
-  </si>
-  <si>
-    <t>idx_equipment_id_type</t>
-  </si>
-  <si>
-    <t>idx_maintenance_id_equipment</t>
-  </si>
-  <si>
-    <t>idx_maintenance_id_agent</t>
+    <t>nome_cliente</t>
+  </si>
+  <si>
+    <t>Nome do cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CNPJ do cliente</t>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+  </si>
+  <si>
+    <t>6-150</t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
+    <t>criado_em</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data de criação do cadastro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funcionario_cliente </t>
+  </si>
+  <si>
+    <t>id_funcionario</t>
+  </si>
+  <si>
+    <t>nome_funcionario</t>
+  </si>
+  <si>
+    <t>telefone</t>
+  </si>
+  <si>
+    <t>10-11</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(50) </t>
+  </si>
+  <si>
+    <t>10-50</t>
+  </si>
+  <si>
+    <t>Cargo ou função desempenhada</t>
+  </si>
+  <si>
+    <t>equipamento</t>
+  </si>
+  <si>
+    <t>id_equipamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nome_equipamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(100) </t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(255) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Descrição do equipamento</t>
+  </si>
+  <si>
+    <t>numero_serie</t>
+  </si>
+  <si>
+    <t>.1-50</t>
+  </si>
+  <si>
+    <t>1-20.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_tipo_equipamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo_equipamento </t>
+  </si>
+  <si>
+    <t>id_tipo_equipamento</t>
+  </si>
+  <si>
+    <t>nome_tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locacao </t>
+  </si>
+  <si>
+    <t>id_locacao</t>
+  </si>
+  <si>
+    <t>id_cliente</t>
+  </si>
+  <si>
+    <t>id_agente</t>
+  </si>
+  <si>
+    <t>data_inicio</t>
+  </si>
+  <si>
+    <t>data_fim</t>
+  </si>
+  <si>
+    <t>observacoes</t>
+  </si>
+  <si>
+    <t>1-225.</t>
+  </si>
+  <si>
+    <t>idx_locacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> item_locacao</t>
+  </si>
+  <si>
+    <t>id_item_locacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_equipamento </t>
+  </si>
+  <si>
+    <t>data_retirada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_devolucao </t>
+  </si>
+  <si>
+    <t>condicao_retirada</t>
+  </si>
+  <si>
+    <t>condicao_devolucao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manutencao </t>
+  </si>
+  <si>
+    <t>id_manutencao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_agente </t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agente </t>
+  </si>
+  <si>
+    <t>nome_agente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(150) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">char(11) </t>
+  </si>
+  <si>
+    <t>1-150</t>
+  </si>
+  <si>
+    <t>idx_funcionario_pk</t>
+  </si>
+  <si>
+    <t>idx_funcionario_id_cliente</t>
+  </si>
+  <si>
+    <t>idx_funcionario_email</t>
+  </si>
+  <si>
+    <t>idx_equipamento</t>
+  </si>
+  <si>
+    <t>idx_equipamento_numero_serie</t>
+  </si>
+  <si>
+    <t>idx_equipamento_status</t>
+  </si>
+  <si>
+    <t>idx_tipo_equipamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idx_locacao_id_cliente </t>
+  </si>
+  <si>
+    <t>idx_locacao_id_funcionario</t>
+  </si>
+  <si>
+    <t>idx_tipo_nome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nome_tipo </t>
+  </si>
+  <si>
+    <t>idx_loc_data_inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_item_locacao </t>
+  </si>
+  <si>
+    <t>idx_item_loc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idx_id_item_locacao </t>
+  </si>
+  <si>
+    <t>idx_item_eqp</t>
+  </si>
+  <si>
+    <t>idx_manut_eqp</t>
+  </si>
+  <si>
+    <t>idx_id_manutencao</t>
+  </si>
+  <si>
+    <t>idx_manut_agente</t>
+  </si>
+  <si>
+    <t>idx_agente_pk</t>
+  </si>
+  <si>
+    <t>idx_agente_email</t>
+  </si>
+  <si>
+    <t>idx_agente_nome</t>
   </si>
 </sst>
 </file>
@@ -659,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -685,27 +751,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -736,6 +781,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F142" sqref="F142:H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,47 +1144,47 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1130,10 +1205,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1150,15 +1225,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="11"/>
+      <c r="A6" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="22"/>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
@@ -1166,16 +1241,16 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D7" s="6">
         <v>14</v>
@@ -1186,19 +1261,19 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="11"/>
+      <c r="A8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="22"/>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
@@ -1206,64 +1281,64 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="11"/>
+      <c r="A9" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="22"/>
       <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>34</v>
+        <v>97</v>
+      </c>
+      <c r="D9" s="28">
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="11"/>
+      <c r="A10" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="22"/>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,17 +1348,17 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="10"/>
+      <c r="A13" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="20"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1291,109 +1366,113 @@
       <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="10"/>
+      <c r="A14" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="20"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="10"/>
+      <c r="A15" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="20"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="B18" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="B19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1414,10 +1493,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="11"/>
+      <c r="A22" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="22"/>
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1430,19 +1509,19 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11"/>
+      <c r="A23" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="22"/>
       <c r="C23" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
@@ -1450,19 +1529,19 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="11"/>
+      <c r="A24" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="22"/>
       <c r="C24" s="3" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>9</v>
@@ -1470,52 +1549,52 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="11"/>
+      <c r="A25" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="22"/>
       <c r="C25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>34</v>
+        <v>97</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="11"/>
+      <c r="A26" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="22"/>
       <c r="C26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>50</v>
+        <v>106</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="11"/>
+      <c r="A27" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="22"/>
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1525,29 +1604,29 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1557,127 +1636,129 @@
       <c r="E29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="10"/>
+      <c r="A30" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="20"/>
       <c r="C30" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="10"/>
+      <c r="A31" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="20"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="D31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="10"/>
+      <c r="A32" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="20"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="5" t="s">
-        <v>52</v>
+      <c r="D32" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="F32" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="B35" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="B36" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="2" t="s">
         <v>4</v>
       </c>
@@ -1698,10 +1779,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="11"/>
+      <c r="A39" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="22"/>
       <c r="C39" s="3" t="s">
         <v>8</v>
       </c>
@@ -1714,19 +1795,19 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="11"/>
+      <c r="A40" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="22"/>
       <c r="C40" s="3" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>9</v>
@@ -1734,35 +1815,37 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="11"/>
+      <c r="A41" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="22"/>
       <c r="C41" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="11"/>
+      <c r="A42" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="22"/>
       <c r="C42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>9</v>
@@ -1770,19 +1853,19 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="11"/>
+      <c r="A43" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="22"/>
       <c r="C43" s="3" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
@@ -1790,14 +1873,14 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="16"/>
+      <c r="A44" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="24"/>
       <c r="C44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1807,47 +1890,47 @@
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="11"/>
+      <c r="A45" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="22"/>
       <c r="C45" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="13"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
@@ -1857,133 +1940,129 @@
       <c r="E47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" s="10"/>
+      <c r="A48" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="20"/>
       <c r="C48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="10"/>
+      <c r="A49" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="20"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
+      <c r="D49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="10"/>
+      <c r="A50" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="20"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
+      <c r="D50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" s="10"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
     </row>
     <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="26"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="19"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
+      <c r="B53" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+      <c r="B54" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="13"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
@@ -2004,10 +2083,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="11"/>
+      <c r="A57" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="22"/>
       <c r="C57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2020,19 +2099,19 @@
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="11"/>
+      <c r="A58" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="22"/>
       <c r="C58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>9</v>
@@ -2040,42 +2119,44 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="11"/>
+      <c r="A59" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="22"/>
       <c r="C59" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="13"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="2" t="s">
         <v>11</v>
       </c>
@@ -2085,115 +2166,121 @@
       <c r="E61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
     </row>
     <row r="62" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="10"/>
+      <c r="A62" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="20"/>
       <c r="C62" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
+      <c r="A63" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="20"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="5"/>
+      <c r="D63" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="F63" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
     </row>
     <row r="66" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="26"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="19"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
+      <c r="B67" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
+      <c r="B68" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="13"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="2" t="s">
         <v>4</v>
       </c>
@@ -2214,10 +2301,10 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" s="11"/>
+      <c r="A71" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="22"/>
       <c r="C71" s="3" t="s">
         <v>8</v>
       </c>
@@ -2230,14 +2317,14 @@
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="11"/>
+      <c r="A72" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="22"/>
       <c r="C72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2247,17 +2334,17 @@
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" s="11"/>
+      <c r="A73" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="22"/>
       <c r="C73" s="3" t="s">
         <v>8</v>
       </c>
@@ -2267,17 +2354,17 @@
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="11"/>
+      <c r="A74" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="22"/>
       <c r="C74" s="3" t="s">
         <v>8</v>
       </c>
@@ -2287,19 +2374,19 @@
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" s="11"/>
+      <c r="A75" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="22"/>
       <c r="C75" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="3" t="s">
@@ -2308,35 +2395,35 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="16"/>
+      <c r="A76" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="24"/>
       <c r="C76" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B77" s="16"/>
+      <c r="A77" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" s="24"/>
       <c r="C77" s="3" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>9</v>
@@ -2344,60 +2431,62 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="16"/>
+      <c r="A78" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="24"/>
       <c r="C78" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D78" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79" s="11"/>
+      <c r="A79" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="22"/>
       <c r="C79" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B81" s="13"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="2" t="s">
         <v>11</v>
       </c>
@@ -2407,137 +2496,141 @@
       <c r="E81" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="13" t="s">
+      <c r="F81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B82" s="10"/>
+      <c r="A82" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" s="20"/>
       <c r="C82" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B83" s="10"/>
+      <c r="A83" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" s="20"/>
       <c r="C83" s="4"/>
       <c r="D83" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E83" s="5"/>
-      <c r="F83" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
+      <c r="F83" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B84" s="10"/>
+      <c r="A84" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84" s="20"/>
       <c r="C84" s="4"/>
       <c r="D84" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E84" s="5"/>
-      <c r="F84" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
+      <c r="F84" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
+      <c r="A85" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" s="20"/>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
+      <c r="F85" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="22"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="15"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="23"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="24"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="17"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
+      <c r="B88" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
+      <c r="B89" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="13"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="2" t="s">
         <v>4</v>
       </c>
@@ -2558,10 +2651,10 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" s="11"/>
+      <c r="A92" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" s="22"/>
       <c r="C92" s="3" t="s">
         <v>8</v>
       </c>
@@ -2574,14 +2667,14 @@
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B93" s="11"/>
+      <c r="A93" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93" s="22"/>
       <c r="C93" s="3" t="s">
         <v>8</v>
       </c>
@@ -2591,17 +2684,17 @@
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B94" s="11"/>
+      <c r="A94" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="22"/>
       <c r="C94" s="3" t="s">
         <v>8</v>
       </c>
@@ -2611,97 +2704,101 @@
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" s="11"/>
+      <c r="A95" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95" s="22"/>
       <c r="C95" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" s="11"/>
+      <c r="A96" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" s="22"/>
       <c r="C96" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" s="16"/>
+      <c r="A97" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B97" s="24"/>
       <c r="C97" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D97" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" s="11"/>
+      <c r="A98" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B98" s="22"/>
       <c r="C98" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D98" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E98" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="13"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="2" t="s">
         <v>11</v>
       </c>
@@ -2711,137 +2808,137 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="13" t="s">
+      <c r="F100" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B101" s="10"/>
+      <c r="A101" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B101" s="20"/>
       <c r="C101" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B102" s="10"/>
+      <c r="A102" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B102" s="20"/>
       <c r="C102" s="4"/>
       <c r="D102" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E102" s="5"/>
-      <c r="F102" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
+      <c r="F102" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B103" s="10"/>
+      <c r="A103" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B103" s="20"/>
       <c r="C103" s="4"/>
       <c r="D103" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E103" s="5"/>
-      <c r="F103" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
+      <c r="F103" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="21"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="22"/>
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="15"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="23"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="24"/>
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="17"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
+      <c r="B107" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
+      <c r="B108" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="13"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="2" t="s">
         <v>4</v>
       </c>
@@ -2862,10 +2959,10 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B111" s="11"/>
+      <c r="A111" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B111" s="22"/>
       <c r="C111" s="3" t="s">
         <v>8</v>
       </c>
@@ -2878,14 +2975,14 @@
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B112" s="11"/>
+      <c r="A112" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="22"/>
       <c r="C112" s="3" t="s">
         <v>8</v>
       </c>
@@ -2895,17 +2992,17 @@
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B113" s="11"/>
+      <c r="A113" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="22"/>
       <c r="C113" s="3" t="s">
         <v>8</v>
       </c>
@@ -2915,19 +3012,19 @@
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B114" s="11"/>
+      <c r="A114" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="22"/>
       <c r="C114" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
@@ -2936,53 +3033,55 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B115" s="11"/>
+      <c r="A115" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115" s="22"/>
       <c r="C115" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="23" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B116" s="16"/>
+      <c r="B116" s="24"/>
       <c r="C116" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D116" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B117" s="16"/>
+      <c r="A117" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117" s="24"/>
       <c r="C117" s="3" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>9</v>
@@ -2990,46 +3089,46 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B118" s="11"/>
+      <c r="A118" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" s="22"/>
       <c r="C118" s="3" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B120" s="13"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="2" t="s">
         <v>11</v>
       </c>
@@ -3039,137 +3138,137 @@
       <c r="E120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="13" t="s">
+      <c r="F120" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B121" s="10"/>
+      <c r="A121" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B121" s="20"/>
       <c r="C121" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="F121" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B122" s="10"/>
+      <c r="A122" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B122" s="20"/>
       <c r="C122" s="4"/>
       <c r="D122" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E122" s="5"/>
-      <c r="F122" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
+      <c r="F122" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B123" s="10"/>
+      <c r="A123" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B123" s="20"/>
       <c r="C123" s="4"/>
       <c r="D123" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E123" s="5"/>
-      <c r="F123" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
+      <c r="F123" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
+      <c r="A124" s="20"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="17"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
-      <c r="H125" s="18"/>
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="11"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="19"/>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="20"/>
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="13"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
+      <c r="B127" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
+      <c r="B128" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="12"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="13"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="2" t="s">
         <v>4</v>
       </c>
@@ -3190,10 +3289,10 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B131" s="11"/>
+      <c r="A131" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B131" s="22"/>
       <c r="C131" s="3" t="s">
         <v>8</v>
       </c>
@@ -3206,19 +3305,19 @@
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B132" s="11"/>
+      <c r="A132" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" s="22"/>
       <c r="C132" s="3" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>9</v>
@@ -3226,19 +3325,19 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B133" s="11"/>
+      <c r="A133" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" s="22"/>
       <c r="C133" s="3" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>9</v>
@@ -3246,80 +3345,80 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B134" s="11"/>
+      <c r="A134" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B134" s="22"/>
       <c r="C134" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>34</v>
+        <v>146</v>
+      </c>
+      <c r="D134" s="6">
+        <v>11</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B135" s="11"/>
+      <c r="A135" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B135" s="22"/>
       <c r="C135" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D135" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D135" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="E135" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B136" s="16"/>
+      <c r="A136" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B136" s="24"/>
       <c r="C136" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="13" t="s">
+      <c r="A137" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B137" s="13"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B138" s="13"/>
+      <c r="B138" s="21"/>
       <c r="C138" s="2" t="s">
         <v>11</v>
       </c>
@@ -3329,138 +3428,168 @@
       <c r="E138" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F138" s="13" t="s">
+      <c r="F138" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B139" s="10"/>
+      <c r="A139" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B139" s="20"/>
       <c r="C139" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F139" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="F139" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B140" s="10"/>
+      <c r="A140" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B140" s="20"/>
       <c r="C140" s="4"/>
       <c r="D140" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E140" s="4"/>
-      <c r="F140" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F140" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
+      <c r="A141" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B141" s="20"/>
       <c r="C141" s="4"/>
-      <c r="D141" s="5"/>
+      <c r="D141" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="E141" s="4"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
+      <c r="F141" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
+      <c r="A142" s="20"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="A125:H126"/>
-    <mergeCell ref="A105:H106"/>
-    <mergeCell ref="A86:H87"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="A137:H137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="B127:H127"/>
-    <mergeCell ref="B128:H128"/>
-    <mergeCell ref="A129:H129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:H119"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="B107:H107"/>
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:H99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="B88:H88"/>
@@ -3478,98 +3607,76 @@
     <mergeCell ref="F81:H81"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="F82:H82"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="B107:H107"/>
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:H119"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="A137:H137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="A125:H126"/>
+    <mergeCell ref="A105:H106"/>
+    <mergeCell ref="A86:H87"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="B127:H127"/>
+    <mergeCell ref="B128:H128"/>
+    <mergeCell ref="A129:H129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="A117:B117"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/dicionario_dados/dicionario_de_dados.xlsx
+++ b/dicionario_dados/dicionario_de_dados.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="169">
   <si>
     <t>Tabela</t>
   </si>
@@ -484,21 +484,12 @@
     <t>idx_funcionario_pk</t>
   </si>
   <si>
-    <t>idx_funcionario_id_cliente</t>
-  </si>
-  <si>
-    <t>idx_funcionario_email</t>
-  </si>
-  <si>
     <t>idx_equipamento</t>
   </si>
   <si>
     <t>idx_equipamento_numero_serie</t>
   </si>
   <si>
-    <t>idx_equipamento_status</t>
-  </si>
-  <si>
     <t>idx_tipo_equipamento</t>
   </si>
   <si>
@@ -514,37 +505,43 @@
     <t xml:space="preserve">nome_tipo </t>
   </si>
   <si>
-    <t>idx_loc_data_inicio</t>
-  </si>
-  <si>
     <t xml:space="preserve">id_item_locacao </t>
   </si>
   <si>
-    <t>idx_item_loc</t>
-  </si>
-  <si>
     <t xml:space="preserve">idx_id_item_locacao </t>
   </si>
   <si>
-    <t>idx_item_eqp</t>
-  </si>
-  <si>
-    <t>idx_manut_eqp</t>
-  </si>
-  <si>
     <t>idx_id_manutencao</t>
   </si>
   <si>
-    <t>idx_manut_agente</t>
-  </si>
-  <si>
     <t>idx_agente_pk</t>
   </si>
   <si>
     <t>idx_agente_email</t>
   </si>
   <si>
-    <t>idx_agente_nome</t>
+    <t>idx_equipamento_id_tipo</t>
+  </si>
+  <si>
+    <t>idx_funcionario_cliente_email</t>
+  </si>
+  <si>
+    <t>idx_funcionario_cliente_id_cliente</t>
+  </si>
+  <si>
+    <t>idx_item_locacao_id_locacao</t>
+  </si>
+  <si>
+    <t>idx_item_locacao_id_equipamento</t>
+  </si>
+  <si>
+    <t>idx_locacao_id_agente</t>
+  </si>
+  <si>
+    <t>idx_manutencao_id_equipamento</t>
+  </si>
+  <si>
+    <t>idx_manutencao_id_agente</t>
   </si>
 </sst>
 </file>
@@ -752,6 +749,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -781,36 +808,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142:H142"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,47 +1141,47 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1205,10 +1202,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1225,10 +1222,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1245,10 +1242,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
@@ -1265,10 +1262,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
         <v>95</v>
       </c>
@@ -1285,14 +1282,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="11">
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1305,10 +1302,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1323,22 +1320,22 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1348,17 +1345,17 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1366,17 +1363,17 @@
       <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
         <v>39</v>
@@ -1384,17 +1381,17 @@
       <c r="E14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
         <v>39</v>
@@ -1402,77 +1399,77 @@
       <c r="E15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1493,10 +1490,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1513,10 +1510,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3" t="s">
         <v>36</v>
       </c>
@@ -1533,10 +1530,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="3" t="s">
         <v>95</v>
       </c>
@@ -1553,14 +1550,14 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="12" t="s">
         <v>104</v>
       </c>
       <c r="E25" s="3"/>
@@ -1571,14 +1568,14 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="10" t="s">
         <v>107</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1591,10 +1588,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1611,22 +1608,22 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1636,17 +1633,17 @@
       <c r="E29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="4" t="s">
         <v>39</v>
       </c>
@@ -1654,111 +1651,109 @@
       <c r="E30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="20"/>
+      <c r="A31" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="16"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="20" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="20"/>
+      <c r="A32" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="16"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="2" t="s">
         <v>4</v>
       </c>
@@ -1779,10 +1774,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="22"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="3" t="s">
         <v>8</v>
       </c>
@@ -1799,10 +1794,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="22"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="3" t="s">
         <v>112</v>
       </c>
@@ -1819,10 +1814,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="22"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="3" t="s">
         <v>114</v>
       </c>
@@ -1837,10 +1832,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="3" t="s">
         <v>48</v>
       </c>
@@ -1857,10 +1852,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="22"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="3" t="s">
         <v>24</v>
       </c>
@@ -1877,10 +1872,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="24"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1897,10 +1892,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="22"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="3" t="s">
         <v>29</v>
       </c>
@@ -1915,22 +1910,22 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="21"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
@@ -1940,17 +1935,17 @@
       <c r="E47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B48" s="20"/>
+      <c r="A48" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="16"/>
       <c r="C48" s="4" t="s">
         <v>39</v>
       </c>
@@ -1958,17 +1953,17 @@
       <c r="E48" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B49" s="20"/>
+      <c r="A49" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="16"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
         <v>39</v>
@@ -1976,93 +1971,93 @@
       <c r="E49" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="B50" s="20"/>
+      <c r="A50" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="16"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
+      <c r="F50" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
     </row>
     <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="19"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="21"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
@@ -2083,10 +2078,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="22"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2103,10 +2098,10 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="22"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="3" t="s">
         <v>48</v>
       </c>
@@ -2123,10 +2118,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="22"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="3" t="s">
         <v>114</v>
       </c>
@@ -2141,22 +2136,22 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="21"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="2" t="s">
         <v>11</v>
       </c>
@@ -2166,17 +2161,17 @@
       <c r="E61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
     </row>
     <row r="62" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" s="20"/>
+      <c r="A62" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="16"/>
       <c r="C62" s="4" t="s">
         <v>39</v>
       </c>
@@ -2184,103 +2179,103 @@
       <c r="E62" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F62" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B63" s="20"/>
+      <c r="A63" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="16"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
+      <c r="F63" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="19"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="29"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="21"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="2" t="s">
         <v>4</v>
       </c>
@@ -2301,10 +2296,10 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="22"/>
+      <c r="B71" s="13"/>
       <c r="C71" s="3" t="s">
         <v>8</v>
       </c>
@@ -2321,10 +2316,10 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="22"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2341,10 +2336,10 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="22"/>
+      <c r="B73" s="13"/>
       <c r="C73" s="3" t="s">
         <v>8</v>
       </c>
@@ -2361,10 +2356,10 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B74" s="22"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="3" t="s">
         <v>8</v>
       </c>
@@ -2381,10 +2376,10 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="22"/>
+      <c r="B75" s="13"/>
       <c r="C75" s="3" t="s">
         <v>29</v>
       </c>
@@ -2399,10 +2394,10 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="24"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="3" t="s">
         <v>29</v>
       </c>
@@ -2415,10 +2410,10 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="24"/>
+      <c r="B77" s="19"/>
       <c r="C77" s="3" t="s">
         <v>24</v>
       </c>
@@ -2435,10 +2430,10 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B78" s="24"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="3" t="s">
         <v>114</v>
       </c>
@@ -2453,10 +2448,10 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B79" s="22"/>
+      <c r="B79" s="13"/>
       <c r="C79" s="3" t="s">
         <v>29</v>
       </c>
@@ -2471,22 +2466,22 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B81" s="21"/>
+      <c r="B81" s="15"/>
       <c r="C81" s="2" t="s">
         <v>11</v>
       </c>
@@ -2496,17 +2491,17 @@
       <c r="E81" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="21" t="s">
+      <c r="F81" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B82" s="20"/>
+      <c r="B82" s="16"/>
       <c r="C82" s="4" t="s">
         <v>39</v>
       </c>
@@ -2514,123 +2509,123 @@
       <c r="E82" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F82" s="20" t="s">
+      <c r="F82" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B83" s="20"/>
+      <c r="A83" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" s="16"/>
       <c r="C83" s="4"/>
       <c r="D83" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E83" s="5"/>
-      <c r="F83" s="20" t="s">
+      <c r="F83" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B84" s="20"/>
+      <c r="A84" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" s="16"/>
       <c r="C84" s="4"/>
       <c r="D84" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E84" s="5"/>
-      <c r="F84" s="20" t="s">
+      <c r="F84" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B85" s="20"/>
+      <c r="A85" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="16"/>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
+      <c r="F85" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="15"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="25"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="17"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="27"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="21"/>
+      <c r="B91" s="15"/>
       <c r="C91" s="2" t="s">
         <v>4</v>
       </c>
@@ -2651,10 +2646,10 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B92" s="22"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="3" t="s">
         <v>8</v>
       </c>
@@ -2671,10 +2666,10 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B93" s="22"/>
+      <c r="B93" s="13"/>
       <c r="C93" s="3" t="s">
         <v>8</v>
       </c>
@@ -2691,10 +2686,10 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B94" s="22"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="3" t="s">
         <v>8</v>
       </c>
@@ -2711,10 +2706,10 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B95" s="22"/>
+      <c r="B95" s="13"/>
       <c r="C95" s="3" t="s">
         <v>29</v>
       </c>
@@ -2727,10 +2722,10 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B96" s="22"/>
+      <c r="B96" s="13"/>
       <c r="C96" s="3" t="s">
         <v>29</v>
       </c>
@@ -2745,10 +2740,10 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B97" s="24"/>
+      <c r="B97" s="19"/>
       <c r="C97" s="3" t="s">
         <v>114</v>
       </c>
@@ -2763,10 +2758,10 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B98" s="22"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="3" t="s">
         <v>114</v>
       </c>
@@ -2783,22 +2778,22 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="21"/>
-      <c r="H99" s="21"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="21"/>
+      <c r="B100" s="15"/>
       <c r="C100" s="2" t="s">
         <v>11</v>
       </c>
@@ -2808,17 +2803,17 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="21" t="s">
+      <c r="F100" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G100" s="21"/>
-      <c r="H100" s="21"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B101" s="20"/>
+      <c r="A101" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" s="16"/>
       <c r="C101" s="4" t="s">
         <v>39</v>
       </c>
@@ -2826,119 +2821,119 @@
       <c r="E101" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F101" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="G101" s="20"/>
-      <c r="H101" s="20"/>
+      <c r="F101" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B102" s="20"/>
+      <c r="A102" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102" s="16"/>
       <c r="C102" s="4"/>
       <c r="D102" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E102" s="5"/>
-      <c r="F102" s="20" t="s">
+      <c r="F102" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B103" s="20"/>
+      <c r="A103" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" s="16"/>
       <c r="C103" s="4"/>
       <c r="D103" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E103" s="5"/>
-      <c r="F103" s="20" t="s">
+      <c r="F103" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="20"/>
-      <c r="B104" s="20"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="20"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="15"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="25"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="16"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="17"/>
+      <c r="A106" s="26"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="27"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="22"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="22"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="21"/>
+      <c r="B110" s="15"/>
       <c r="C110" s="2" t="s">
         <v>4</v>
       </c>
@@ -2959,10 +2954,10 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B111" s="22"/>
+      <c r="B111" s="13"/>
       <c r="C111" s="3" t="s">
         <v>8</v>
       </c>
@@ -2979,10 +2974,10 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="22" t="s">
+      <c r="A112" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="22"/>
+      <c r="B112" s="13"/>
       <c r="C112" s="3" t="s">
         <v>8</v>
       </c>
@@ -2999,10 +2994,10 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B113" s="22"/>
+      <c r="B113" s="13"/>
       <c r="C113" s="3" t="s">
         <v>8</v>
       </c>
@@ -3019,10 +3014,10 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="22" t="s">
+      <c r="A114" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B114" s="22"/>
+      <c r="B114" s="13"/>
       <c r="C114" s="3" t="s">
         <v>29</v>
       </c>
@@ -3037,10 +3032,10 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="22" t="s">
+      <c r="A115" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B115" s="22"/>
+      <c r="B115" s="13"/>
       <c r="C115" s="3" t="s">
         <v>29</v>
       </c>
@@ -3055,10 +3050,10 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="23" t="s">
+      <c r="A116" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B116" s="24"/>
+      <c r="B116" s="19"/>
       <c r="C116" s="3" t="s">
         <v>114</v>
       </c>
@@ -3073,10 +3068,10 @@
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="23" t="s">
+      <c r="A117" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B117" s="24"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="3" t="s">
         <v>24</v>
       </c>
@@ -3093,10 +3088,10 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="22" t="s">
+      <c r="A118" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B118" s="22"/>
+      <c r="B118" s="13"/>
       <c r="C118" s="3" t="s">
         <v>24</v>
       </c>
@@ -3113,22 +3108,22 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="21" t="s">
+      <c r="A119" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B119" s="21"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="21"/>
-      <c r="H119" s="21"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="21" t="s">
+      <c r="A120" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B120" s="21"/>
+      <c r="B120" s="15"/>
       <c r="C120" s="2" t="s">
         <v>11</v>
       </c>
@@ -3138,17 +3133,17 @@
       <c r="E120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="21" t="s">
+      <c r="F120" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G120" s="21"/>
-      <c r="H120" s="21"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="B121" s="20"/>
+      <c r="A121" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B121" s="16"/>
       <c r="C121" s="4" t="s">
         <v>39</v>
       </c>
@@ -3156,119 +3151,119 @@
       <c r="E121" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F121" s="20" t="s">
+      <c r="F121" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G121" s="20"/>
-      <c r="H121" s="20"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B122" s="20"/>
+      <c r="A122" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B122" s="16"/>
       <c r="C122" s="4"/>
       <c r="D122" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E122" s="5"/>
-      <c r="F122" s="20" t="s">
+      <c r="F122" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B123" s="20"/>
+      <c r="A123" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" s="16"/>
       <c r="C123" s="4"/>
       <c r="D123" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E123" s="5"/>
-      <c r="F123" s="20" t="s">
+      <c r="F123" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G123" s="20"/>
-      <c r="H123" s="20"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="20"/>
-      <c r="B124" s="20"/>
+      <c r="A124" s="16"/>
+      <c r="B124" s="16"/>
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="10"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="11"/>
+      <c r="A125" s="20"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="21"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="13"/>
+      <c r="A126" s="22"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="23"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B127" s="22" t="s">
+      <c r="B127" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C127" s="22"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="22" t="s">
+      <c r="B128" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="25" t="s">
+      <c r="A129" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="25"/>
-      <c r="H129" s="25"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="21"/>
+      <c r="B130" s="15"/>
       <c r="C130" s="2" t="s">
         <v>4</v>
       </c>
@@ -3289,10 +3284,10 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="22" t="s">
+      <c r="A131" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B131" s="22"/>
+      <c r="B131" s="13"/>
       <c r="C131" s="3" t="s">
         <v>8</v>
       </c>
@@ -3309,10 +3304,10 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="22" t="s">
+      <c r="A132" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B132" s="22"/>
+      <c r="B132" s="13"/>
       <c r="C132" s="3" t="s">
         <v>112</v>
       </c>
@@ -3329,10 +3324,10 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="22" t="s">
+      <c r="A133" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B133" s="22"/>
+      <c r="B133" s="13"/>
       <c r="C133" s="3" t="s">
         <v>145</v>
       </c>
@@ -3349,10 +3344,10 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="22" t="s">
+      <c r="A134" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B134" s="22"/>
+      <c r="B134" s="13"/>
       <c r="C134" s="3" t="s">
         <v>146</v>
       </c>
@@ -3367,10 +3362,10 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="22" t="s">
+      <c r="A135" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B135" s="22"/>
+      <c r="B135" s="13"/>
       <c r="C135" s="3" t="s">
         <v>106</v>
       </c>
@@ -3387,10 +3382,10 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="23" t="s">
+      <c r="A136" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B136" s="24"/>
+      <c r="B136" s="19"/>
       <c r="C136" s="3" t="s">
         <v>29</v>
       </c>
@@ -3403,22 +3398,22 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="21" t="s">
+      <c r="A137" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B137" s="21"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="21"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="21"/>
-      <c r="H137" s="21"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B138" s="21"/>
+      <c r="B138" s="15"/>
       <c r="C138" s="2" t="s">
         <v>11</v>
       </c>
@@ -3428,17 +3423,17 @@
       <c r="E138" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F138" s="21" t="s">
+      <c r="F138" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="B139" s="20"/>
+      <c r="A139" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B139" s="16"/>
       <c r="C139" s="4" t="s">
         <v>39</v>
       </c>
@@ -3446,17 +3441,17 @@
       <c r="E139" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F139" s="20" t="s">
+      <c r="F139" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G139" s="20"/>
-      <c r="H139" s="20"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="B140" s="20"/>
+      <c r="A140" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B140" s="16"/>
       <c r="C140" s="4"/>
       <c r="D140" s="5" t="s">
         <v>39</v>
@@ -3464,195 +3459,34 @@
       <c r="E140" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F140" s="20" t="s">
+      <c r="F140" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B141" s="20"/>
+      <c r="A141" s="16"/>
+      <c r="B141" s="16"/>
       <c r="C141" s="4"/>
-      <c r="D141" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="D141" s="5"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="G141" s="20"/>
-      <c r="H141" s="20"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="20"/>
-      <c r="B142" s="20"/>
+      <c r="A142" s="16"/>
+      <c r="B142" s="16"/>
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="20"/>
-      <c r="H142" s="20"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:H80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:H99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="B107:H107"/>
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:H119"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="A137:H137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="F139:H139"/>
     <mergeCell ref="A125:H126"/>
     <mergeCell ref="A105:H106"/>
     <mergeCell ref="A86:H87"/>
@@ -3677,6 +3511,161 @@
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="F124:H124"/>
     <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="A137:H137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:H119"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="B107:H107"/>
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:H80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
